--- a/Documenti/Marco Catteneo/MRESim/logs/ProactiveReserve/stats/analisi PR.xlsx
+++ b/Documenti/Marco Catteneo/MRESim/logs/ProactiveReserve/stats/analisi PR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Tesi\Documenti\Marco Catteneo\MRESim\logs\ProactiveReserve\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B8E32-6890-4D12-923B-0115CAB85F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF1C626-5E36-455D-B4E0-F99B11067757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="3" r:id="rId1"/>
@@ -280,22 +280,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>115.5</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.5</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145</c:v>
+                  <c:v>147.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,8 +929,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -947,17 +948,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$O$2:$O$7</c:f>
@@ -1012,7 +1013,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AC68-452B-AADF-4FA4FA8B790F}"/>
@@ -1034,17 +1034,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$O$2:$O$7</c:f>
@@ -1099,7 +1097,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AC68-452B-AADF-4FA4FA8B790F}"/>
@@ -1121,17 +1118,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$O$2:$O$7</c:f>
@@ -1186,97 +1181,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AC68-452B-AADF-4FA4FA8B790F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8'!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'8'!$O$2:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8'!$S$2:$S$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1209.4499999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1308.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>742.85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>519.45000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1340.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>704.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AC68-452B-AADF-4FA4FA8B790F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1295,17 +1202,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$O$2:$O$7</c:f>
@@ -1360,7 +1265,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AC68-452B-AADF-4FA4FA8B790F}"/>
@@ -1375,10 +1279,118 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$S$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$O$2:$O$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$S$2:$S$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1209.4499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1308.45</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>742.85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>519.45000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1340.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>704.3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AC68-452B-AADF-4FA4FA8B790F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -1646,8 +1658,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1664,17 +1677,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$I$2:$I$7</c:f>
@@ -1682,27 +1695,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>113.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>138.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.5</c:v>
+                  <c:v>57.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>147.5</c:v>
+                  <c:v>149.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.5</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-24B2-4203-B6E1-7525A77F312E}"/>
@@ -1724,17 +1736,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$J$2:$J$7</c:f>
@@ -1762,7 +1772,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24B2-4203-B6E1-7525A77F312E}"/>
@@ -1784,17 +1793,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$K$2:$K$7</c:f>
@@ -1822,70 +1829,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-24B2-4203-B6E1-7525A77F312E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'9'!$L$2:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-24B2-4203-B6E1-7525A77F312E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1904,17 +1850,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$M$2:$M$7</c:f>
@@ -1942,7 +1886,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-24B2-4203-B6E1-7525A77F312E}"/>
@@ -1957,10 +1900,85 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$L$2:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>79</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-24B2-4203-B6E1-7525A77F312E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -2223,8 +2241,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2241,17 +2260,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$W$2:$W$7</c:f>
@@ -2279,7 +2298,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CF2F-4741-8CA0-52BC279D7A66}"/>
@@ -2301,17 +2319,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$X$2:$X$7</c:f>
@@ -2339,7 +2355,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CF2F-4741-8CA0-52BC279D7A66}"/>
@@ -2361,17 +2376,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$Y$2:$Y$7</c:f>
@@ -2399,70 +2412,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CF2F-4741-8CA0-52BC279D7A66}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'9'!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'9'!$Z$2:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1121.6500000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1349.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>636.54999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>514.65000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1349.9499999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>748.34999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CF2F-4741-8CA0-52BC279D7A66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2481,17 +2433,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'9'!$AA$2:$AA$7</c:f>
@@ -2519,7 +2469,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-CF2F-4741-8CA0-52BC279D7A66}"/>
@@ -2534,10 +2483,85 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9'!$Z$2:$Z$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1121.6500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1349.65</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>636.54999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>514.65000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1349.9499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>748.34999999999991</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-CF2F-4741-8CA0-52BC279D7A66}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -2840,22 +2864,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121.5</c:v>
+                  <c:v>123.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>76.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>134.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.5</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,22 +3997,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>115.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>70.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.5</c:v>
+                  <c:v>51.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,8 +7632,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7626,17 +7651,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$I$2:$I$7</c:f>
@@ -7653,7 +7678,7 @@
                   <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>172.5</c:v>
@@ -7664,7 +7689,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A096-4F07-8988-3989041A7A1F}"/>
@@ -7686,17 +7710,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$J$2:$J$7</c:f>
@@ -7724,7 +7746,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A096-4F07-8988-3989041A7A1F}"/>
@@ -7746,17 +7767,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$K$2:$K$7</c:f>
@@ -7784,7 +7803,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A096-4F07-8988-3989041A7A1F}"/>
@@ -7806,17 +7824,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$M$2:$M$7</c:f>
@@ -7844,7 +7860,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A096-4F07-8988-3989041A7A1F}"/>
@@ -7859,12 +7874,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -7886,17 +7901,15 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -7912,17 +7925,16 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A096-4F07-8988-3989041A7A1F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -8185,8 +8197,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8203,17 +8216,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$W$2:$W$7</c:f>
@@ -8241,7 +8254,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C361-43C9-8CB5-96731B781D2A}"/>
@@ -8263,17 +8275,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$X$2:$X$7</c:f>
@@ -8301,7 +8311,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C361-43C9-8CB5-96731B781D2A}"/>
@@ -8323,17 +8332,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$Y$2:$Y$7</c:f>
@@ -8361,52 +8368,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C361-43C9-8CB5-96731B781D2A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'6'!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'6'!$Z$2:$Z$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C361-43C9-8CB5-96731B781D2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8425,17 +8389,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'6'!$AA$2:$AA$7</c:f>
@@ -8463,7 +8425,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C361-43C9-8CB5-96731B781D2A}"/>
@@ -8478,10 +8439,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6'!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'6'!$Z$2:$Z$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C361-43C9-8CB5-96731B781D2A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -8812,22 +8830,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>115.5</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.5</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145</c:v>
+                  <c:v>147.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10178,8 +10196,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10196,17 +10215,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$I$2:$I$7</c:f>
@@ -10234,7 +10253,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9FE-446C-BB41-9A4180AC7E20}"/>
@@ -10256,17 +10274,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$J$2:$J$7</c:f>
@@ -10294,7 +10310,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9FE-446C-BB41-9A4180AC7E20}"/>
@@ -10316,17 +10331,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$K$2:$K$7</c:f>
@@ -10354,52 +10367,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A9FE-446C-BB41-9A4180AC7E20}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'7'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'7'!$L$2:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A9FE-446C-BB41-9A4180AC7E20}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10418,17 +10388,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$M$2:$M$7</c:f>
@@ -10456,7 +10424,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A9FE-446C-BB41-9A4180AC7E20}"/>
@@ -10471,10 +10438,67 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'7'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'7'!$L$2:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A9FE-446C-BB41-9A4180AC7E20}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -10737,8 +10761,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -10755,17 +10780,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$W$2:$W$7</c:f>
@@ -10793,7 +10818,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -10815,17 +10839,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$X$2:$X$7</c:f>
@@ -10853,7 +10875,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -10875,17 +10896,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$Y$2:$Y$7</c:f>
@@ -10913,7 +10932,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -10935,17 +10953,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'7'!$AA$2:$AA$7</c:f>
@@ -10973,7 +10989,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8A97-4E36-ADCE-2D5BFDB5B312}"/>
@@ -10988,12 +11003,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510543056"/>
         <c:axId val="510548304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
+            <c15:filteredBarSeries>
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
@@ -11015,17 +11030,15 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
+                <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -11041,17 +11054,16 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8A97-4E36-ADCE-2D5BFDB5B312}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredLineSeries>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510543056"/>
         <c:scaling>
@@ -11319,8 +11331,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -11337,17 +11350,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$A$2:$A$8</c:f>
@@ -11382,27 +11395,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>115.5</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
+                  <c:v>133.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.5</c:v>
+                  <c:v>57.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145</c:v>
+                  <c:v>147.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>73.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2761-458F-91DF-38CD3B31376D}"/>
@@ -11424,17 +11436,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$A$2:$A$8</c:f>
@@ -11489,7 +11499,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2761-458F-91DF-38CD3B31376D}"/>
@@ -11511,17 +11520,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$A$2:$A$8</c:f>
@@ -11576,97 +11583,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2761-458F-91DF-38CD3B31376D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'8'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'8'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2761-458F-91DF-38CD3B31376D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11685,17 +11604,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'8'!$A$2:$A$8</c:f>
@@ -11750,7 +11667,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2761-458F-91DF-38CD3B31376D}"/>
@@ -11765,10 +11681,118 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="510549944"/>
         <c:axId val="510550272"/>
-      </c:lineChart>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>C5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$A$2:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'8'!$E$2:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>77.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>55.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>137.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>76.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2761-458F-91DF-38CD3B31376D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
       <c:catAx>
         <c:axId val="510549944"/>
         <c:scaling>
@@ -22949,8 +22973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69AE5AF-8FD5-410E-BC05-A457A128AC80}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23276,7 +23300,7 @@
       </c>
       <c r="I5">
         <f>AVERAGE(B8:B9)</f>
-        <v>51.5</v>
+        <v>47.5</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:M5" si="6">AVERAGE(C8:C9)</f>
@@ -23502,7 +23526,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>47</v>
@@ -23668,8 +23692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529460E3-8350-4A03-9878-4DB5B7BCF04E}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24387,7 +24411,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24469,8 +24493,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>(145+86)/2</f>
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="C2">
         <f>(100+140)/2</f>
@@ -24535,8 +24558,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>(132+152)/2</f>
-        <v>142</v>
+        <v>133.9</v>
       </c>
       <c r="C3">
         <f>(144+133)/2</f>
@@ -24601,8 +24623,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>(95+93)/2</f>
-        <v>94</v>
+        <v>85.4</v>
       </c>
       <c r="C4">
         <v>92</v>
@@ -24666,8 +24687,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>(57+58)/2</f>
-        <v>57.5</v>
+        <v>57.2</v>
       </c>
       <c r="C5">
         <v>58</v>
@@ -24730,8 +24750,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>(136+154)/2</f>
-        <v>145</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="C6">
         <f>(131+134)/2</f>
@@ -24796,8 +24815,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>(76+66)/2</f>
-        <v>71</v>
+        <v>73.2</v>
       </c>
       <c r="C7">
         <f>(74+73)/2</f>
@@ -24990,8 +25008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602E89A9-BFC8-4FFA-A637-126A1265732C}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25109,8 +25127,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>99</v>
+        <v>113.1</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C3)</f>
@@ -25193,8 +25210,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(B4:B5)</f>
-        <v>155</v>
+        <v>138.4</v>
       </c>
       <c r="J3">
         <f>AVERAGE(C4:C5)</f>
@@ -25277,8 +25293,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f>AVERAGE(B6:B7)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4" si="12">AVERAGE(C6:C7)</f>
@@ -25361,8 +25376,7 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f>AVERAGE(B8:B9)</f>
-        <v>56.5</v>
+        <v>57.4</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5" si="20">AVERAGE(C8:C9)</f>
@@ -25445,8 +25459,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f>AVERAGE(B10:B11)</f>
-        <v>147.5</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6" si="28">AVERAGE(C10:C11)</f>
@@ -25529,8 +25542,7 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(B12:B13)</f>
-        <v>70.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7" si="36">AVERAGE(C12:C13)</f>
@@ -25828,8 +25840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4755B4A6-190D-4138-80DF-D5CF3B77CB99}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25944,8 +25956,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>121.5</v>
+        <v>123.4</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:C3)</f>
@@ -26014,7 +26025,6 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f>AVERAGE(B4:B5)</f>
         <v>174</v>
       </c>
       <c r="J3">
@@ -26084,11 +26094,10 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:M4" si="4">AVERAGE(B6:B7)</f>
-        <v>76</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I4:M4" si="4">AVERAGE(C6:C7)</f>
         <v>82</v>
       </c>
       <c r="K4">
@@ -26154,11 +26163,10 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:M5" si="6">AVERAGE(B8:B9)</f>
-        <v>55</v>
+        <v>52.6</v>
       </c>
       <c r="J5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I5:M5" si="6">AVERAGE(C8:C9)</f>
         <v>58</v>
       </c>
       <c r="K5">
@@ -26224,11 +26232,10 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:M6" si="8">AVERAGE(B10:B11)</f>
-        <v>143</v>
+        <v>134.1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I6:M6" si="8">AVERAGE(C10:C11)</f>
         <v>128</v>
       </c>
       <c r="K6">
@@ -26294,11 +26301,10 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:M7" si="10">AVERAGE(B12:B13)</f>
-        <v>71.5</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="J7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I7:M7" si="10">AVERAGE(C12:C13)</f>
         <v>78.5</v>
       </c>
       <c r="K7">
@@ -26546,8 +26552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8466B39-80B5-4BA4-AEE0-261E0742D23D}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26662,8 +26668,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <f>AVERAGE(B2:B3)</f>
-        <v>112</v>
+        <v>115.9</v>
       </c>
       <c r="J2" s="2">
         <f>AVERAGE(C2:C3)</f>
@@ -26734,7 +26739,6 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f>AVERAGE(B4:B5)</f>
         <v>146</v>
       </c>
       <c r="J3" s="2">
@@ -26806,11 +26810,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:M4" si="4">AVERAGE(B6:B7)</f>
-        <v>70</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I4:M4" si="4">AVERAGE(C6:C7)</f>
         <v>76</v>
       </c>
       <c r="K4" s="2">
@@ -26878,11 +26881,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:M5" si="6">AVERAGE(B8:B9)</f>
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I5:M5" si="6">AVERAGE(C8:C9)</f>
         <v>56</v>
       </c>
       <c r="K5" s="2">
@@ -26950,11 +26952,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:M6" si="8">AVERAGE(B10:B11)</f>
         <v>137</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I6:M6" si="8">AVERAGE(C10:C11)</f>
         <v>133.5</v>
       </c>
       <c r="K6" s="2">
@@ -27022,11 +27023,10 @@
         <v>6</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:M7" si="10">AVERAGE(B12:B13)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I7:M7" si="10">AVERAGE(C12:C13)</f>
         <v>79.5</v>
       </c>
       <c r="K7" s="2">
@@ -27276,8 +27276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E2FB7A-EF40-4E3F-8A61-8D7194D0AA23}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="B6:B13 G6:H13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
